--- a/Pregame simulation/selected_features_data_K.xlsx
+++ b/Pregame simulation/selected_features_data_K.xlsx
@@ -60,7 +60,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +71,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -545,148 +538,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="7" width="16.625" customWidth="1"/>
   </cols>
@@ -1075,7 +1068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>69.33</v>
       </c>
@@ -1097,8 +1090,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>87.05</v>
       </c>
@@ -1120,8 +1116,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>61.71</v>
       </c>
@@ -1143,8 +1142,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>65.88</v>
       </c>
@@ -1166,8 +1168,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>61.58</v>
       </c>
@@ -1189,8 +1194,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>67.65</v>
       </c>
@@ -1212,8 +1220,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>59.81</v>
       </c>
@@ -1235,8 +1246,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>92.63</v>
       </c>
@@ -1258,8 +1272,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>95.02</v>
       </c>
@@ -1281,8 +1298,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>96.77</v>
       </c>
@@ -1304,8 +1324,11 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>94.29</v>
       </c>
@@ -1327,8 +1350,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>59.01</v>
       </c>
@@ -1350,8 +1376,11 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>62.47</v>
       </c>
@@ -1373,8 +1402,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>61.87</v>
       </c>
@@ -1396,8 +1428,11 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>65.18</v>
       </c>
@@ -1419,8 +1454,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>60.71</v>
       </c>
@@ -1442,8 +1480,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>79.46</v>
       </c>
@@ -1465,8 +1506,11 @@
       <c r="G18">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>76.68</v>
       </c>
@@ -1488,8 +1532,11 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>92.35</v>
       </c>
@@ -1511,8 +1558,11 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>92.72</v>
       </c>
@@ -1533,6 +1583,9 @@
       </c>
       <c r="G21">
         <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
